--- a/dataFiles/test/bateau/bateau_6_MIL.xlsx
+++ b/dataFiles/test/bateau/bateau_6_MIL.xlsx
@@ -136,25 +136,25 @@
     <t>(1220, 304, 68, 113)</t>
   </si>
   <si>
-    <t>(83, 73, 119)</t>
-  </si>
-  <si>
-    <t>(9, 176, 61)</t>
-  </si>
-  <si>
-    <t>(84, 252, 176)</t>
-  </si>
-  <si>
-    <t>(164, 174, 169)</t>
-  </si>
-  <si>
-    <t>(48, 94, 140)</t>
-  </si>
-  <si>
-    <t>(31, 112, 182)</t>
-  </si>
-  <si>
-    <t>(170, 234, 76)</t>
+    <t>(240, 236, 157)</t>
+  </si>
+  <si>
+    <t>(88, 140, 121)</t>
+  </si>
+  <si>
+    <t>(232, 72, 252)</t>
+  </si>
+  <si>
+    <t>(250, 230, 2)</t>
+  </si>
+  <si>
+    <t>(196, 55, 4)</t>
+  </si>
+  <si>
+    <t>(247, 48, 221)</t>
+  </si>
+  <si>
+    <t>(229, 6, 201)</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
         <v>40</v>
       </c>
       <c r="M2">
-        <v>19.47</v>
+        <v>19.17</v>
       </c>
       <c r="P2" t="b">
         <v>0</v>
@@ -644,7 +644,7 @@
         <v>41</v>
       </c>
       <c r="M3">
-        <v>19.32</v>
+        <v>19.04</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -685,7 +685,7 @@
         <v>42</v>
       </c>
       <c r="M4">
-        <v>19.26</v>
+        <v>18.93</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>43</v>
       </c>
       <c r="M5">
-        <v>19.58</v>
+        <v>19.33</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -767,7 +767,7 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>19.7</v>
+        <v>19.38</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -808,7 +808,7 @@
         <v>45</v>
       </c>
       <c r="M7">
-        <v>19.63</v>
+        <v>19.36</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -849,7 +849,7 @@
         <v>46</v>
       </c>
       <c r="M8">
-        <v>19.49</v>
+        <v>19.26</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
